--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>1.58477</v>
       </c>
       <c r="I2">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="J2">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.74848166666666</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N2">
-        <v>194.245445</v>
+        <v>214.423775</v>
       </c>
       <c r="O2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q2">
-        <v>34.20381709696111</v>
+        <v>37.75692954519444</v>
       </c>
       <c r="R2">
-        <v>307.83435387265</v>
+        <v>339.81236590675</v>
       </c>
       <c r="S2">
-        <v>0.8357300736769416</v>
+        <v>0.7959829970777452</v>
       </c>
       <c r="T2">
-        <v>0.8357300736769416</v>
+        <v>0.7959829970777452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>1.58477</v>
       </c>
       <c r="I3">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="J3">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.258629666666667</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>9.775889000000001</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q3">
         <v>1.721392845614445</v>
@@ -638,10 +635,10 @@
         <v>15.49253561053</v>
       </c>
       <c r="S3">
-        <v>0.04206021116339487</v>
+        <v>0.03629001226808624</v>
       </c>
       <c r="T3">
-        <v>0.04206021116339487</v>
+        <v>0.03629001226808623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +667,10 @@
         <v>1.58477</v>
       </c>
       <c r="I4">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="J4">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.023043</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>0.069129</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q4">
-        <v>0.01217261837</v>
+        <v>0.0561401250788889</v>
       </c>
       <c r="R4">
-        <v>0.10955356533</v>
+        <v>0.50526112571</v>
       </c>
       <c r="S4">
-        <v>0.0002974236243388529</v>
+        <v>0.001183533342220647</v>
       </c>
       <c r="T4">
-        <v>0.0002974236243388529</v>
+        <v>0.001183533342220647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,45 +729,45 @@
         <v>1.58477</v>
       </c>
       <c r="I5">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="J5">
-        <v>0.8888516221232222</v>
+        <v>0.8498693102778859</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7928556666666667</v>
+        <v>1.47377</v>
       </c>
       <c r="N5">
-        <v>2.378567</v>
+        <v>4.42131</v>
       </c>
       <c r="O5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q5">
-        <v>0.4188312916211112</v>
+        <v>0.7785288276333334</v>
       </c>
       <c r="R5">
-        <v>3.76948162459</v>
+        <v>7.0067594487</v>
       </c>
       <c r="S5">
-        <v>0.01023365039090385</v>
+        <v>0.01641276758983376</v>
       </c>
       <c r="T5">
-        <v>0.01023365039090385</v>
+        <v>0.01641276758983376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5282566666666667</v>
+        <v>0.09331733333333335</v>
       </c>
       <c r="H6">
-        <v>1.58477</v>
+        <v>0.279952</v>
       </c>
       <c r="I6">
-        <v>0.8888516221232222</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="J6">
-        <v>0.8888516221232222</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04108233333333334</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N6">
-        <v>0.123247</v>
+        <v>214.423775</v>
       </c>
       <c r="O6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q6">
-        <v>0.02170201646555556</v>
+        <v>6.669818295422222</v>
       </c>
       <c r="R6">
-        <v>0.19531814819</v>
+        <v>60.0283646588</v>
       </c>
       <c r="S6">
-        <v>0.0005302632676429661</v>
+        <v>0.1406115915861033</v>
       </c>
       <c r="T6">
-        <v>0.0005302632676429661</v>
+        <v>0.1406115915861033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06605699999999999</v>
+        <v>0.09331733333333335</v>
       </c>
       <c r="H7">
-        <v>0.198171</v>
+        <v>0.279952</v>
       </c>
       <c r="I7">
-        <v>0.1111483778767777</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="J7">
-        <v>0.1111483778767777</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.74848166666666</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N7">
-        <v>194.245445</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q7">
-        <v>4.277090453454999</v>
+        <v>0.3040866308142222</v>
       </c>
       <c r="R7">
-        <v>38.493814081095</v>
+        <v>2.736779677328</v>
       </c>
       <c r="S7">
-        <v>0.1045056786982547</v>
+        <v>0.00641068515587453</v>
       </c>
       <c r="T7">
-        <v>0.1045056786982548</v>
+        <v>0.00641068515587453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +900,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06605699999999999</v>
+        <v>0.09331733333333335</v>
       </c>
       <c r="H8">
-        <v>0.198171</v>
+        <v>0.279952</v>
       </c>
       <c r="I8">
-        <v>0.1111483778767777</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="J8">
-        <v>0.1111483778767777</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.258629666666667</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N8">
-        <v>9.775889000000001</v>
+        <v>0.318823</v>
       </c>
       <c r="O8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q8">
-        <v>0.215255299891</v>
+        <v>0.009917237388444447</v>
       </c>
       <c r="R8">
-        <v>1.937297699019</v>
+        <v>0.08925513649600002</v>
       </c>
       <c r="S8">
-        <v>0.005259510280016106</v>
+        <v>0.0002090729419545768</v>
       </c>
       <c r="T8">
-        <v>0.005259510280016107</v>
+        <v>0.0002090729419545768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,179 +962,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06605699999999999</v>
+        <v>0.09331733333333335</v>
       </c>
       <c r="H9">
-        <v>0.198171</v>
+        <v>0.279952</v>
       </c>
       <c r="I9">
-        <v>0.1111483778767777</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="J9">
-        <v>0.1111483778767777</v>
+        <v>0.1501306897221141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023043</v>
+        <v>1.47377</v>
       </c>
       <c r="N9">
-        <v>0.069129</v>
+        <v>4.42131</v>
       </c>
       <c r="O9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q9">
-        <v>0.001522151451</v>
+        <v>0.1375282863466667</v>
       </c>
       <c r="R9">
-        <v>0.013699363059</v>
+        <v>1.23775457712</v>
       </c>
       <c r="S9">
-        <v>3.71919818389134E-05</v>
+        <v>0.002899340038181655</v>
       </c>
       <c r="T9">
-        <v>3.719198183891341E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.06605699999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.198171</v>
-      </c>
-      <c r="I10">
-        <v>0.1111483778767777</v>
-      </c>
-      <c r="J10">
-        <v>0.1111483778767777</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.7928556666666667</v>
-      </c>
-      <c r="N10">
-        <v>2.378567</v>
-      </c>
-      <c r="O10">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="P10">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="Q10">
-        <v>0.052373666773</v>
-      </c>
-      <c r="R10">
-        <v>0.471363000957</v>
-      </c>
-      <c r="S10">
-        <v>0.001279688996899113</v>
-      </c>
-      <c r="T10">
-        <v>0.001279688996899113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.06605699999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.198171</v>
-      </c>
-      <c r="I11">
-        <v>0.1111483778767777</v>
-      </c>
-      <c r="J11">
-        <v>0.1111483778767777</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.04108233333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.123247</v>
-      </c>
-      <c r="O11">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="P11">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="Q11">
-        <v>0.002713775693</v>
-      </c>
-      <c r="R11">
-        <v>0.024423981237</v>
-      </c>
-      <c r="S11">
-        <v>6.630791976884607E-05</v>
-      </c>
-      <c r="T11">
-        <v>6.630791976884609E-05</v>
+        <v>0.002899340038181655</v>
       </c>
     </row>
   </sheetData>
